--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAN5SZH\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\offer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBE9ECFF-8BBE-44F1-9439-DBA2BE846011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A555DAF-B488-4D28-BEB1-CA899A319A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1296" yWindow="2352" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{2373C7D7-3A0B-4384-90EC-BF2B4AF4B083}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{2373C7D7-3A0B-4384-90EC-BF2B4AF4B083}"/>
   </bookViews>
   <sheets>
     <sheet name="主卧" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,10 @@
     <sheet name="厨房" sheetId="3" r:id="rId5"/>
     <sheet name="餐厅" sheetId="6" r:id="rId6"/>
     <sheet name="户型" sheetId="7" r:id="rId7"/>
+    <sheet name="楼栋" sheetId="10" r:id="rId8"/>
+    <sheet name="小区外" sheetId="11" r:id="rId9"/>
+    <sheet name="电器" sheetId="8" r:id="rId10"/>
+    <sheet name="家具" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,9 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>硬装</t>
   </si>
@@ -91,6 +93,45 @@
   </si>
   <si>
     <t>书柜</t>
+  </si>
+  <si>
+    <t>餐边柜</t>
+  </si>
+  <si>
+    <t>鞋柜</t>
+  </si>
+  <si>
+    <t>喜来登</t>
+  </si>
+  <si>
+    <t>灯具</t>
+  </si>
+  <si>
+    <t>橱柜</t>
+  </si>
+  <si>
+    <t>茶几</t>
+  </si>
+  <si>
+    <t>扫地机器人</t>
+  </si>
+  <si>
+    <t>烤箱</t>
+  </si>
+  <si>
+    <t>餐椅</t>
+  </si>
+  <si>
+    <t>周边马路</t>
+  </si>
+  <si>
+    <t>周边商业</t>
+  </si>
+  <si>
+    <t>周边学校</t>
+  </si>
+  <si>
+    <t>周边高压线</t>
   </si>
 </sst>
 </file>
@@ -129,7 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -190,11 +231,152 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AB33A29-CF71-796A-D26E-87BF259336DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9144000" y="3017520"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>509016</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>25603</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90CF0133-A3D1-DB54-128F-636342E2ECA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6964680" y="0"/>
+          <a:ext cx="7565136" cy="9078163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>208748</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>48213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501A0F12-AE5F-6D9D-25FB-E41286629924}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2910840" y="0"/>
+          <a:ext cx="5527508" cy="5412693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -490,15 +672,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0820B7E1-B9C4-4B26-B94E-4CDB19E7C2EA}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -506,20 +688,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -527,12 +717,90 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EA3918-0F8E-42F2-A43F-052BA03BE764}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2401A4-4454-4259-BFA8-3A3F9715263D}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E46C7E-3B9B-4EA9-B539-6E09DB76661F}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -559,6 +827,11 @@
       </c>
       <c r="B3" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -596,11 +869,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F578E94-1D99-4B69-B36C-2B54D4CEC5A4}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -650,6 +921,16 @@
         <v>16</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -657,17 +938,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7AD16A-C8DE-4436-BA9D-7B1EE40331F0}">
-  <dimension ref="B1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -680,7 +966,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -702,11 +988,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE397C8-E556-415C-A61C-5A9189172227}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFE7ED4-FB9A-45C0-9821-608CF660B376}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40F37A8-FA4E-4076-BE29-4488A047180D}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>